--- a/TestFiles/poria/words/word_5.xlsx
+++ b/TestFiles/poria/words/word_5.xlsx
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4720293000000009</v>
+        <v>0.4720292999999991</v>
       </c>
       <c r="B2">
-        <v>0.5563520999999998</v>
+        <v>0.556352099999998</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -399,10 +399,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7520445999999996</v>
+        <v>0.7520445999999978</v>
       </c>
       <c r="B3">
-        <v>0.8517242000000014</v>
+        <v>0.8517241999999996</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.024075699999999</v>
+        <v>1.024075699999997</v>
       </c>
       <c r="B4">
-        <v>1.136001800000001</v>
+        <v>1.136001799999999</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.383761300000002</v>
+        <v>1.3837613</v>
       </c>
       <c r="B5">
-        <v>1.479925400000001</v>
+        <v>1.479925399999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.676142</v>
+        <v>1.676141999999999</v>
       </c>
       <c r="B6">
-        <v>1.772033500000001</v>
+        <v>1.772033499999999</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
